--- a/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
+++ b/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97351C-B482-423E-8700-774940963943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF69E11-EC12-48FF-ABE0-D22E96502BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="240" windowWidth="21660" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="934">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -2905,10 +2905,6 @@
     <t>Korean (한국어) [Translation]</t>
   </si>
   <si>
-    <t>영문 설명에 없던 내용들을 추가했습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>경작된 토양</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2917,10 +2913,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>경작은 다양한 방식으로 토양을 뒤엎어 농사를 준비하는 과정으로, 지형을 비옥하게 합니다. 경작은 이미 기름진 토양이 아닌 토양에서 수행할 수 있습니다.\n\n경작된 토양에서 작물을 수확하면 원래의 토양으로 되돌아가며, 다시 수동으로 경작해야 합니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>흙</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2929,10 +2921,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>생과일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>apples</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3121,10 +3109,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>림왈도에서 Grass는 잡초로 나옵니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Cultivated grass. Grows anywhere there is a little light and minimally fertile ground.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Grass can be used to feed cattle, similar to haygrass. It isn't affected by blight, but can't be harvested and stored as hay can.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3181,10 +3165,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>기술적으로 호박은 파종과 수확이 매우 쉬운 것으로 잘 알려져 있습니다. 상당한 내구성이 있지만, 크고 무거워서 수경재배기에 담기에는 너무 부담스럽습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 호박 수확은 재배 기술에 상관없이 항상 성공합니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Tiny, spicy, crimson pods often used in sauces, relishes, or powders. While the flavor itself is mild the capsaicin contained inside means humans find them oddly addicting, if painful when consumed in mass. Animals are known to avoid eating them entirely.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Animals won't eat the pepper plant, having an effective nutrition of zero. Note however that they will eat the harvested produce normally.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3209,26 +3189,14 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>과거에 양배추를 독한 가루제의 농약을 뿌려가며 재배한 탓인지, 현재 이 품종은 공기 중 독소와 방사능에 대한 저항력이 매우 높습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양배추는 유독성 낙진의 영향을 받지 않으며, 다른 식물과 달리 낙진으로 인해서는 죽지 않습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>An herb-like vegetable widely cultivated for humans and livestock alike, notably nutritious and historically used in dye making.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; While beets do require rich soil they are quite hearty, and will continue to grow at 10% speed through winter. They need to be planted during growing season, though.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>원뿌리 식물인 비트는 사람과 가축을 위해 널리 재배됩니다. 영양가가 특히 높고 과거에는 염료 제조에 사용되곤 했습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 비트는 비옥한 토양을 필요로 하지만, 매우 튼튼하여 한겨울 동안에도 10%의 속도로 계속 자랄 수 있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>A series of juicy, glossy red fruits attached by vine, used commonly as a vegetable. Strong stewing releases natural sugars and mellows out acids contained within. Tomatoes are easily removed from the vine without having to uproot the plant.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Tomatoes won't be destroyed on harvest, similar to fruit trees.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>덩굴식물로 땅바닥을 기면서 줄기로 뿌리가 나와 자랍니다. 이 특징 덕에 뿌리째 뽑지 않고도 쉽게 토마토를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 토마토는 수확과 상관없이 수명이 다해야만 사라집니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>사과 나무</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3245,14 +3213,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>벚꽃 나무</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>버찌 나무가 더 직관적이면 롤백해주세요.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>A tree bearing tiny purple-red sweet cherries. Cherry trees are notable for requiring a brief freezing season, as such their fruit quickly became a favorite among northern occidental civilizations. This particular genus is quite beautiful, speckled with pink blossoms throughout, blooming fully each winter.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nCherry trees have double beauty compared to other fruit trees.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3285,10 +3245,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>사실 백년초 선인장은 잘못된 표현입니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>More often referred to as the “prickly pear” cactus, this plant is known to be quite bountiful even in hot, dry deserts. The pads of this tall, spiny cactus bloom pink, melon-like edible fruits, used historically for both snacking as well as medicine by desert natives.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nOpuntis can be planted close to each other as they don't block sowing plants adjacent to them.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3429,10 +3385,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>녹색 잎으로 둘러싸인 단단한 흰색 중심부를 가진 큰 둥근 식물로, 흔히 하얀 브로콜리라고 착각하기 쉬운 꽃양배추입니다. 이 품종은 공기 중 독소와 방사능에 영향을 받지 않도록 개량되었습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 콜리플라워는 유독성 낙진에도 꿋꿋하며, 다른 식물과 달리 낙진으로는 죽지 않습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.ThingDef+VCE_RawCabbage.label</t>
   </si>
   <si>
@@ -3658,10 +3610,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>그로 미셀 바나나 나무</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.ThingDef+VCE_BananaTree.description</t>
   </si>
   <si>
@@ -3669,10 +3617,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>이 품종은 21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자 변형되었습니다. 다른 바나나 나무처럼 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n그로 미셀 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.ThingDef+VCE_RawBanana.label</t>
   </si>
   <si>
@@ -3680,10 +3624,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>그로 미셀 바나나</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.ThingDef+VCE_RawBanana.description</t>
   </si>
   <si>
@@ -3697,10 +3637,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>디저트 생과일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.ThingDef+VCE_OrangeTree.label</t>
   </si>
   <si>
@@ -3722,10 +3658,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>작은 귤나무로, 열매는 미니어처 오렌지를 닮았으며 보통 그대로 먹거나 과일 샐러드에 넣어 먹습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n감귤 나무는 3타일 내에 강 타일마다 성장률이 1%p 증가합니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.ThingDef+VCE_RawOrange.label</t>
   </si>
   <si>
@@ -3820,71 +3752,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>생으로 먹어도 맛있는 진한 보랏빛의 매끈한 과일로 특히 신맛이 납니다. 잼, 양갱, 과일주로 만들어 먹기도 하며, 장기 보존을 위해 말려서 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 아삭아삭한 녹색 과일입니다. 사과의 먼 사촌으로 비슷하지만, 배가 섬유질이 더 많은 편이고 단맛이 덜합니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 작고 붉은 열매로 알려진 월귤입니다. 신맛과 밍밍한 맛이 나지만, 요리하면 자연스러운 단맛이 나오고 훨씬 더 맛있게 먹을 수 있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 노란색의 길쭉한 열매로, 껍질을 벗기면 매우 달고 무른 과육이 드러납니다. 이 열매는 수천 년 동안 열대지방에서 인간과 다른 영장류 모두에게 사랑받아 왔습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 말 그대로 오렌지색의 이 열매는 껍질 벗기기가 어렵기로 악명 높지만, 과육이 매우 많으며 새콤달콤한 맛이 인상적입니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 양파입니다. 톡 쏘는 단맛과 고소한 향을 지녀 어느 요리든 들어가는 채소입니다. 자연스러운 맛을 위해서는 사실상 필수적으로 넣는 식재료입니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 호박입니다. 크고 무겁지만 특유의 부드러운 단맛 덕분에 채소로 잘 사용되어 왔습니다. 다양한 문화권에서 식재료뿐만 아니라 할로윈 가면이나 잭 오 랜턴으로도 사용되었습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>생으로 먹어도 맛있는 윤기나는 빨간 과일입니다. 사과는 인류 초기부터 간식, 디저트, 그리고 과일주를 만드는 데 사용되었습니다.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>생으로 먹어도 맛있는 붉은 자줏빛의 달콤한 열매입니다. 체리로도 불리는 버찌는 계절성 겨울 시즌이 필요하기 때문에, 추운 북방 문화권에서 인기 있는 과일이 되었습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>생으로 먹어도 맛있는 프룬이라고도 불리는 건과일입니다. 오랫동안 보관하여 먹을 수 있습니다.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>생으로 먹어도 맛있는 분홍빛의 멜론 같은 식용 과일로, 오래전부터 사막 지역의 원주민들의 간식뿐만이 아니라 민간요법으로도 사용되었습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 고추입니다. 채소로 여겨지는 매운 꼬투리로, 주로 소스나 가루로 낸 조미료로 사용됩니다. 자체적인 맛은 순하지만, 내부에 포함된 캡사이신 때문에 매운맛을 느낄 수 있습니다.\n재배 중일 때는 동물들이 먹지 않는 것으로 알려져 있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>익히지 않은 완두콩입니다. 완두콩은 잘 건조되는 특성 덕분에 기본적으로 긴 보존 기간을 가지는 것으로 유명합니다. 소량의 독성이 있으니 다른 채소처럼 익혀 먹는 게 좋습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 가지입니다. 가지는 주로 채소로 여겨지고, 일반적으로 반찬보다는 메인 요리로 사용될 때 맛이 좋습니다. 요리법에 따라 평가가 상당히 갈리는 식재료입니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 양배추입니다. 약간 단단한 잎이 많은 녹색 채소로, 그대로 조리되거나 종종 잘게 썰어 드레싱을 버무려 제공됩니다. 대표적인 요리로 샐러드와 코울슬로가 있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 비트입니다. 뿌리 부분을 주로 먹으며 특유의 식감 덕에 사랑받는 채소 중 하나입니다. 당분 함량에 따라서 다른 품종이 되기 때문에 같은 종인 사탕무는 설탕 생산원으로 길러집니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 토마토입니다. 즙이 많고 광택이 나는 연한 붉은 과일이지만, 일반적으로 채소로 사용됩니다. 강하게 졸이면 내부의 산성이 부드러워져 감칠맛이 잘 느껴집니다.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -3892,119 +3768,227 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>동물에게 먹힘을 피하고자 진화한 이 식물은 캡사이신을 품고 있어 섭취하면 고통스럽지만, 유독 사람에게는 고통보다는 매운맛을 선물합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 동물들은 고추 식물은 먹지 않으며, 영양가가 전혀 없는 것으로 간주합니다. 그러나 수확된 고추는 정상적으로 먹습니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>완두는 물이 많이 필요하여 비가 오면 잘 자랍니다. 또한, 완두콩은 두꺼운 꼬투리만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 평소에는 다른 작물보다 효율이 떨어지지만, 비가 올 때는 성장 속도가 50% 증가합니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소로 분류되지만, 식물학적으로 가지 식물은 가짓과에 속하는 기다란 자주색 과일입니다. 따뜻한 날씨에서 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 가지 식물은 온도가 37도에서 60도 사이일 때 30% 더 빠르게 자랍니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤기나는 맛있는 빨간 사과를 맺는 나무로, 다양한 품종이 존재하지만 이 빨간 품종은 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>솜털이 있는 예쁜 복숭아를 맺는 낙엽수로, 햇빛과 따뜻한 온도만 있다면 잘 자랍니다. 이 나무들은 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n복숭아나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>달콤한 버찌를 맺는 벚꽃나무는 계절성 겨울 시즌이 필요합니다. 미관상 매우 아름다우며, 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n벚꽃나무는 다른 과일 나무보다 두 배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>매끈한 껍질을 가진 진한 보랏빛 과일을 맺는 무성한 나무입니다. 많은 문화권에서 자두를 말려 프룬이라고도 불리는 건자두를 만들어 장기 보존합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n자두를 상온에 두어 보존 기간이 긴 말린 자두로 만들 수 있습니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>향긋하고 아삭한 녹색 배를 맺는 튼튼한 나무로, 배나무는 물과 서늘한 날씨를 좋아하고 그늘에서도 잘 자라는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n배나무는 지붕 아래에서도 재배할 수 있으며 풍력 발전기를 가로막지 않습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 열매로 점철된 낮게 자라는 덤불로, 고산지대 혹은 북위 38도 이상 고위도에서 쉽게 볼 수 있으며, 척박한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n월귤 덤불은 화분에서도 재배할 수 있습니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"해안선인장" 이라고도 불리는 이 선인장은 뜨겁고 건조한 사막에서도 매우 풍성하게 자라는 것으로 알려져 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n백년초 선인장은 서로 가까이 심을 수 있으며, 인접한 식물의 파종을 막지 않습니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>21세기를 강타한 대규모 바나나병 감염 사태에서 살아남은 품종으로 열대지방 대표적인 파초입니다. 노란색의 길쭉한 열매인 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n바나나는 한 번에 "송이"를 수확할 수 있어, 다른 나무들보다 수확 시간이 훨씬 짧습니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>주황색 과일이 점점이 달린 무성한 아열대 나무로, 흡습이 필요할 정도의 습한 환경과 습한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n오렌지 나무는 주변 3타일 반경 내에 있는 강 타일 하나당 성장률이 1% 증가합니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>익히지 않은 양배추입니다. 콜리플라워는 섬유질과 비타민 B가 풍부하며 식감이 아삭아삭하고 약간 탱탱한 느낌이 들며 전체적으로 부드럽습니다.</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>천연 방충제 역할을 할 만큼 강한 향을 품은 식용 가능한 하얀 알뿌리식물로, 이 품종은 양파의 대표적인 품종입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 흰 양파는 강하기 때문에 병충해 따위는 무시할 수 있습니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>가장 큰 호박 품종 중 하나인 자이언트 호박은 무게가 25kg에서 50kg까지 자랄 수 있습니다. 파종과 수확이 매우 쉽고 튼튼하지만, 워낙 거대해서 수경재배기에 담기에는 무리입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 자이언트 호박은 남녀노소 누구나 수확에 성공합니다.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>익히지 않은 정말 거대한 호박입니다. 무게와 달리 부드러운 단맛이 나기에 다양한 요리에 사용되어 왔습니다. 다양한 문화권에서 할로윈 데이 때 호박머리 기사로 사용하기에 적합했습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>이 토마토 품종은 가지치기만 정기적으로 한다면 수확 후 추가적인 파종 없이 오랫동안 덩굴을 유지할 수 있습니다. 수확할 때 가지치기를 자동으로 하기 때문에 따로 관리할 필요가 없습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 대왕 토마토는 수확하여도 덩굴이 남아 있습니다.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>단단한 사과를 맺는 나무로, 연한 녹색 껍질과 바삭하고 즙이 많은 과육을 가지고 있습니다. 이 녹색 품종은 너무 덥지 않은 여름과 적당히 추운 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
+    <t>생으로 먹어도 맛있는 이 단단한 과일은 연한 녹색 껍질이 특징입니다. 일반 사과보다는 좀 더 신맛이 납니다. 구워도 단단하여 요리하기에 매우 인기 있는 사과입니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 작은 버찌 열매입니다. 과거에는 쓴맛 때문에 생으로 먹지 않지만, 유전자 변형으로 더 달콤한 맛의 열매로 재탄생했고 현재는 조리 없이 맛있게 먹을 수 있습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 연한 주황색을 띠는 과일로, 복숭아와 비슷하지만 이보다는 훨씬 작습니다. 조리 없이도 많이 먹으며, 잼과 주스 같은 일부 부산물을 만드는 데도 사용되곤 합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 이 과일은 특유의 다소 떫은맛을 가지고 있어 요리, 특히 보존식품으로 널리 사용됩니다. 많은 문화권에서는 자두를 건조하여 유통기한이 긴 말린 자두로 만듭니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 이 노란색 열매는 캐번디시 바나나와는 다른 독특한 맛을 가지고 있습니다. 한때는 이 세상의 모든 바나나 공급을 책임지기도 했었습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소로 분류되지만, 식물학적으로 이 식물은 가짓과에 속하는 과일로 둥글고 검은 밤색이 특징입니다. 잘 자라기 위해선 따뜻한 날씨가 필요합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 가지입니다. 블랙뷰티 가지는 다양한 요리에 채소로 넣기 좋으며, 그릴에 구워 먹거나, 오븐에 구워 먹거나, 볶아 먹어야 맛있습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 붉은빛의 달콤한 열매입니다. 체리로도 불리는 버찌는 계절성 겨울 시즌이 필요하기 때문에, 추운 북방 문화권에서 인기 있는 과일이 되었습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 아삭아삭한 녹색 과일입니다. 사과의 먼 사촌으로 서로 비슷하지만, 배가 섬유질이 더 많은 편이고 단맛은 덜합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 분홍빛의 식용 과일로, 오래전부터 사막 원주민들의 간식뿐만이 아니라 민간요법으로도 사용되었습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 진한 보랏빛의 매끈한 과일로 특히 신맛이 납니다. 간식으로 먹기도 하며, 장기 보존을 위해 말려서 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 작은 붉은 열매입니다. 신맛과 밍밍한 맛이 나지만, 요리하면 자연스러운 단맛이 나와 훨씬 더 맛있게 먹을 수 있습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 노란색의 길쭉한 열매로, 껍질을 벗기면 매우 달고 무른 과육이 드러납니다. 수천 년 동안 열대지방에서 영장류 모두에게 사랑받아 왔습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 양파입니다. 톡 쏘는 단맛과 고소한 향을 지녀 어느 요리든 들어갈 수 있습니다. 자연스러운 맛을 위해 사실상 필수적으로 넣는 식재료입니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 고추입니다. 매운 꼬투리로, 소스나 가루로 낸 조미료로도 사용됩니다. 자체적인 맛은 순하지만, 내부에 포함된 캡사이신 때문에 매운맛을 느낄 수 있습니다.\n\n재배 중일 때는 동물들이 먹지 않는 것으로 알려져 있습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 가지입니다. 일반적으로 반찬보다는 메인 요리로 사용될 때 맛이 좋습니다. 요리법에 따라 평가가 상당히 갈리는 식재료입니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 호박입니다. 크고 무겁지만 부드러운 단맛 덕분에 요리에 사용되어 왔습니다. 다양한 문화권에서 식재료 뿐만 아니라 할로윈 가면이나 잭 오 랜턴으로도 사용되었습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 양배추입니다. 약간 단단한 잎이 많아 그대로 먹기에는 불편하지만, 통째로 삶거나 잘게 썰어 드레싱을 버무리면 먹을 만합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 비트입니다. 뿌리 부분을 주로 먹으며 특유의 식감 덕에 사랑받아 왔습니다. 당분 함량에 따라서 다른 품종이 되기 때문에 같은 종인 사탕무는 설탕 생산원으로 길러집니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 토마토입니다. 맛을 위해 익혀서 먹도록 개량되었으며, 강하게 졸이면 내부의 산성이 부드러워져 감칠맛이 잘 느껴집니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 주황색 혹은 오랜지색의 열매입니다. 껍질을 벗기기가 어렵기로 악명 높지만, 과육이 매우 많으며 새콤달콤한 맛이 인상적입니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 정말 거대한 호박입니다. 무게와 달리 부드러운 단맛이 나기에 다양한 요리에 사용되어 왔습니다. 다양한 문화권에서 할로윈 데이의 호박머리 기사로 사용하기에 적합했습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 이 품종은 방사능에 대한 저항력이 매우 높습니다. 과거에 독한 가루제의 농약을 뿌려가며 재배한 것이 원인으로 보입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양배추는 유독성 낙진의 영향으로 죽지 않습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>천연 방충제 역할을 할 만큼 강한 향을 품은 식용 가능한 하얀 알뿌리식물로, 이 품종은 양파의 대표적인 품종입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 흰 양파는 병충해를 무시할 수 있습니다.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>벚꽃 나무로도 알려진 사쿠라 나무는 '사쿠란보'라고 알려진 작은 열매를 맺습니다. 전통적으로 생으로 먹지 않았지만, 이 품종은 더 달콤하게 생산하도록 유전자 변형되었습니다. 이 품종은 매우 아름다우며, 벚꽃이 점점이 피어 매 겨울마다 만개합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n사쿠라나무는 다른 과일 나무보다 더 아름답고, 겨울에는 벚꽃이 만개하여 진귀한 광경을 만들어 냅니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>살구를 맺는 장미과 벚나무 속의 낙엽 소교목입니다. 현재도 가로수로 많이 심으며, 과거 고대인들이 기와 마당에 심어 꽃과 열매를 즐기기도 한 전통 정원수입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n살구나무는 매우 튼튼하여 돌이 많은 땅에도 심을 수 있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>댐슨 자두나무는, 고어로 "다마신(damascene)"이라고도 불리며, 비교적 작은 타원형 과일을 맺는 그득한 나무입니다. 열매는 건조하여 장기 보존을 위한 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n댐슨 자두를 상온에 두면 유통기한이 긴 말린 자두로 변합니다.</t>
+    <t>녹색 잎으로 둘러싸인 단단한 흰색 중심부를 가진 큰 둥근 식물로, 흔히 하얀 브로콜리라고 착각하기 쉬운 꽃양배추입니다. 이 품종은 공기 중 독소와 방사능에 영향을 받지 않도록 개량되었습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 콜리플라워는 다른 식물과 달리 유독성 낙진으로는 죽지 않습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 품종은 뿌리째 뽑지 않고도 간단히 토마토만 수확할 수 있도록 개량되었습니다. 하지만 이전과 달리 조리없이 먹기에는 약간의 독성이 부담됩니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 토마토는 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로 미셸 바나나</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로 미셸 바나나 나무</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>버찌 나무</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두는 물이 많이 필요하여 비가 오면 잘 자랍니다. 또한, 완두콩은 두꺼운 꼬투리만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 완두는 비가 오면 성장 속도가 150% 증가합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지 식물은 특히 뜨거운 날씨에서 잘 자랍니다. 보통 채소로 분류되지만, 엄밀히 따지면 가지 식물은 가짓과에 속하는 기다란 자주색 과일입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 가지는 37°C~60°C 에서 성장 속도가 130% 증가합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 식물은 자기 방어를 위해 몸에 캡사이신을 품는 것을 선택했습니다. 이로 인해 섭취하면 고통스럽지만, 인류에게는 고통보다는 매운맛을 제공합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 고추는 재배 중이면 동물들이 먹지 않습니다. 그러나 수확된 고추는 정상적으로 먹습니다.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>생으로 먹어도 맛있는 이 단단한 과일은 연한 녹색 껍질이 특징입니다. 일반 사과보다는 좀 더 신맛이 납니다. 구워도 단단하여 요리하기에 매우 인기 있는 사과입니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 작은 버찌 열매입니다. 과거에는 쓴맛 때문에 생으로 먹지 않지만, 유전자 변형으로 더 달콤한 맛의 열매로 재탄생했고 현재는 조리 없이 맛있게 먹을 수 있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 연한 주황색을 띠는 과일로, 복숭아와 비슷하지만 이보다는 훨씬 작습니다. 조리 없이도 많이 먹으며, 잼과 주스 같은 일부 부산물을 만드는 데도 사용되곤 합니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 이 과일은 특유의 다소 떫은맛을 가지고 있어 요리, 특히 보존식품으로 널리 사용됩니다. 많은 문화권에서는 자두를 건조하여 유통기한이 긴 말린 자두로 만듭니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 이 노란색 열매는 캐번디시 바나나와는 다른 독특한 맛을 가지고 있습니다. 한때는 이 세상의 모든 바나나 공급을 책임지기도 했었습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>생으로 먹어도 맛있는 이 열매는 일반 오렌지보다 작고 둥글납작합니다. 맛은 덜 시고 더 달며 강합니다. 참고로 귤은 작을수록 더 맛있습니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소로 분류되지만, 식물학적으로 이 식물은 가짓과에 속하는 과일로 둥글고 검은 밤색이 특징입니다. 잘 자라기 위해선 따뜻한 날씨가 필요합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>익히지 않은 가지입니다. 블랙뷰티 가지는 다양한 요리에 채소로 넣기 좋으며, 그릴에 구워 먹거나, 오븐에 구워 먹거나, 볶아 먹어야 맛있습니다.</t>
+    <t>기술적으로 호박은 파종과 수확은 매우 쉽습니다. 내구성도 상당하지만, 크고 무거워서 운반하거나 수경재배기에 담기에는 너무 부담스럽습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 호박은 재배 기술에 상관없이 항상 수확에 성공합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>원뿌리 식물인 비트는 적절한 땅이 있다면 추위에도 잘 견뎌낼 수 있습니다. 식재료 뿐만 아니라 과거에는 염료 제조에 사용되기도 했습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 비트는 한파 속에서도 10%의 속도로 계속 자랄 수 있습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤기나는 맛있는 빨간 사과를 맺는 나무로, 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>솜털이 있는 예쁜 복숭아를 맺는 낙엽수로, 햇빛과 따뜻한 온도만 있다면 잘 자랍니다. 열매의 외형이 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n복숭아 나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤한 버찌를 맺는 나무로, 추운 겨울 시즌이 필요합니다. 미관상 매우 아름다우며 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n버찌 나무는 다른 나무보다 두 배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>매끈하고 진한 보랏빛 자두를 맺는 무성한 나무입니다. 많은 문화권에서는 자두를 말려 프룬이라고도 불리는 건자두로 만들어 장기간 보존합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n자두를 상온에 두어 보존 기간이 긴 말린 자두로 만들 수 있습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>향긋하고 아삭한 녹색 배를 맺는 튼튼한 나무로, 물과 서늘한 날씨를 좋아하고 그늘에서도 잘 자라는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n배 나무는 지붕 아래에서도 재배할 수 있으며 풍력 발전기를 가로막지 않습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 선인장은 "해안선인장" 이라고도 불리며 사막에서도 매우 풍성하게 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n백년초 선인장은 서로 가까이 심을 수 있으며, 인접한 식물의 파종을 막지 않습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 열매로 엮여진 키가 작은 덤불입니다. 고산지대 같은 척박한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n월귤 덤불은 화분에서도 재배할 수 있습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수천 년 동안 인간과 다른 영장류의 간식을 책임져온 열대지방 대표적인 파초입니다. 노란색의 길쭉한 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n바나나는 다른 과일 나무보다 수확 시간이 훨씬 짧습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황색 과일이 달린 무성한 아열대 나무입니다. 흡습이 필요할 정도의 습한 환경에서 더욱 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n오렌지 나무는 주변 3타일 반경 내에 있는 강 타일 하나당 성장률이 1%p 증가합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생으로 먹어도 맛있는 감귤은 일반 오렌지보다 작고 둥글납작합니다. 맛은 덜 시고 더 달며 강합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 귤나무로, 열매는 미니어처 오렌지를 닮았으며 보통 그대로 먹거나 과일 샐러드에 넣어 먹습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n감귤 나무는 3타일 내에 강 타일마다 성장률이 1%p 증가합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자가 변형되었습니다. 다른 바나나 나무처럼 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n그로 미셸 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>댐슨 자두나무는, 고어로 "다마신(damascene)"이라고도 불리며, 비교적 작은 타원형 과일을 맺는 그득한 나무입니다. 열매는 건조하여 장기 보존을 위한 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n댐슨 자두를 상온에 두면 유통기한이 긴 말린 자두로 변합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구를 맺는 장미과 벚나무 속의 낙엽 소교목입니다. 현재도 가로수로 많이 심으며, 과거 고대인들이 기와 마당에 심어 꽃과 열매를 즐기기도 한 전통 정원수입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n살구나무는 매우 튼튼하여 돌이 많은 땅에도 심을 수 있습니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 나무로도 알려진 사쿠라 나무는 '사쿠란보'라고 알려진 작은 열매를 맺습니다. 전통적으로 사쿠란보는 생으로 먹지 않았지만, 이제는 더 달콤하게 생산하도록 유전자가 변형되었습니다. 이 품종은 매우 아름다우며, 벚꽃이 점점이 피어 매 겨울마다 만개합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.\n\n사쿠라나무는 다른 과일 나무보다 더 아름답고, 겨울에는 벚꽃이 만개하여 진귀한 광경을 만들어 냅니다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 사과를 맺는 나무로, 연한 녹색 껍질과 바삭하고 즙이 많은 과육을 가지고 있습니다. 이 녹색 품종은 너무 덥지 않은 여름과 적당히 추운 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺기까지 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 한 번 심으면 수확과 상관없이 수명이 다해야 사라집니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>디저트 과일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 방식으로 토양을 뒤엎어 지형을 비옥하게 합니다. 이미 비옥한 토양이 아닌 일반적인 토양에서만 경작을 할 수 있습니다.\n\n경작된 토양에서 작물을 수확하면 토양은 원래대로 되돌아갑니다.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4578,7 +4562,7 @@
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4597,11 +4581,8 @@
       <c r="F1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4615,10 +4596,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4629,13 +4610,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4649,10 +4630,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -4663,13 +4644,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4680,13 +4661,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4697,13 +4678,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -4717,10 +4698,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4731,13 +4712,13 @@
         <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4748,13 +4729,13 @@
         <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -4765,13 +4746,13 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -4782,13 +4763,13 @@
         <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -4799,13 +4780,13 @@
         <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -4819,10 +4800,10 @@
         <v>54</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -4833,13 +4814,13 @@
         <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -4850,10 +4831,10 @@
         <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4867,10 +4848,10 @@
         <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4884,10 +4865,10 @@
         <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4901,10 +4882,10 @@
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4918,10 +4899,10 @@
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4935,10 +4916,10 @@
         <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4955,7 +4936,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4969,10 +4950,10 @@
         <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4989,7 +4970,7 @@
         <v>84</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,10 +4984,10 @@
         <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5023,7 +5004,7 @@
         <v>90</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5037,10 +5018,10 @@
         <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5057,7 +5038,7 @@
         <v>96</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5071,7 +5052,7 @@
         <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>897</v>
@@ -5091,7 +5072,7 @@
         <v>102</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5105,10 +5086,10 @@
         <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5122,10 +5103,10 @@
         <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -5139,10 +5120,10 @@
         <v>110</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -5156,10 +5137,10 @@
         <v>113</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -5173,10 +5154,10 @@
         <v>116</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -5190,10 +5171,10 @@
         <v>119</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -5207,10 +5188,10 @@
         <v>122</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -5224,10 +5205,10 @@
         <v>125</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -5241,10 +5222,10 @@
         <v>128</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5261,7 +5242,7 @@
         <v>132</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -5275,10 +5256,10 @@
         <v>134</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -5295,11 +5276,9 @@
         <v>138</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>702</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -5312,10 +5291,10 @@
         <v>140</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -5329,10 +5308,10 @@
         <v>143</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -5346,10 +5325,10 @@
         <v>146</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -5363,10 +5342,10 @@
         <v>149</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -5380,10 +5359,10 @@
         <v>152</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -5397,10 +5376,10 @@
         <v>155</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5414,10 +5393,10 @@
         <v>158</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5431,10 +5410,10 @@
         <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5448,10 +5427,10 @@
         <v>164</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>717</v>
+        <v>914</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5468,7 +5447,7 @@
         <v>168</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5482,10 +5461,10 @@
         <v>170</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5499,10 +5478,10 @@
         <v>173</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,10 +5495,10 @@
         <v>176</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5536,7 +5515,7 @@
         <v>180</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5550,10 +5529,10 @@
         <v>182</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5570,7 +5549,7 @@
         <v>186</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5584,10 +5563,10 @@
         <v>188</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>724</v>
+        <v>903</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5604,7 +5583,7 @@
         <v>192</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5618,10 +5597,10 @@
         <v>194</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>726</v>
+        <v>915</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5638,7 +5617,7 @@
         <v>198</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5652,10 +5631,10 @@
         <v>200</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>728</v>
+        <v>906</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5672,7 +5651,7 @@
         <v>204</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -5686,10 +5665,10 @@
         <v>206</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -5706,7 +5685,7 @@
         <v>210</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -5720,10 +5699,10 @@
         <v>212</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -5740,11 +5719,9 @@
         <v>216</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>734</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -5757,10 +5734,10 @@
         <v>218</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -5777,7 +5754,7 @@
         <v>222</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -5791,10 +5768,10 @@
         <v>224</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -5808,10 +5785,10 @@
         <v>227</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -5825,10 +5802,10 @@
         <v>230</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -5842,14 +5819,12 @@
         <v>233</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>743</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -5862,10 +5837,10 @@
         <v>236</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -5879,10 +5854,10 @@
         <v>239</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -5896,10 +5871,10 @@
         <v>242</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -5916,7 +5891,7 @@
         <v>246</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -5930,10 +5905,10 @@
         <v>248</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -5950,7 +5925,7 @@
         <v>252</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -5964,10 +5939,10 @@
         <v>254</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -5978,13 +5953,13 @@
         <v>425</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -5995,16 +5970,16 @@
         <v>425</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>430</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -6015,13 +5990,13 @@
         <v>425</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>433</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -6038,7 +6013,7 @@
         <v>427</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -6055,10 +6030,10 @@
         <v>430</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -6075,7 +6050,7 @@
         <v>433</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -6092,7 +6067,7 @@
         <v>427</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -6109,10 +6084,10 @@
         <v>430</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -6129,7 +6104,7 @@
         <v>433</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -6146,7 +6121,7 @@
         <v>449</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -6163,7 +6138,7 @@
         <v>452</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -6180,7 +6155,7 @@
         <v>455</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -6197,1067 +6172,1067 @@
         <v>458</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="F99" s="12" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>781</v>
+        <v>905</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>288</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>921</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>300</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>923</v>
+        <v>879</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>312</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>315</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>925</v>
+        <v>880</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>336</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>930</v>
+        <v>881</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>931</v>
+        <v>882</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>932</v>
+        <v>883</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>372</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>933</v>
+        <v>884</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>849</v>
+        <v>927</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>852</v>
+        <v>907</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>387</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>934</v>
+        <v>885</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>857</v>
+        <v>932</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>864</v>
+        <v>926</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>936</v>
+        <v>886</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>937</v>
+        <v>887</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
